--- a/excelfiles/MW-NIFTY-MIDCAP-150-31-Dec-2025.xlsx
+++ b/excelfiles/MW-NIFTY-MIDCAP-150-31-Dec-2025.xlsx
@@ -15,13 +15,14 @@
   <sheets>
     <sheet name="MW-NIFTY-MIDCAP-150-31-Dec-2025" sheetId="1" r:id="rId1"/>
     <sheet name="Result" r:id="rId5" sheetId="2"/>
+    <sheet name="Result1" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="309">
   <si>
     <t xml:space="preserve">SYMBOL 
 </t>
@@ -960,6 +961,9 @@
   </si>
   <si>
     <t>DiffFrom52WHigh</t>
+  </si>
+  <si>
+    <t>DiffFrom52WLow</t>
   </si>
 </sst>
 </file>
@@ -11559,4 +11563,3034 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>7698.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>13220.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>58.22995461422088</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>7038.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>109.37766410912192</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>697.45</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1184.7</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>58.87144424748881</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>514.52</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>135.55352561610823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>139.71</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>234.29</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>59.631226258056266</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>129.11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>108.21005344280071</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>842.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>1384.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>60.83815028901734</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>774.05</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>108.77850268070539</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>484.7</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>795.4</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>60.93789288408348</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>399.4</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>121.35703555333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>4330.2</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>6950.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>62.30503597122302</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>3973.6</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>108.9742299174552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>29.42</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>46.27</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>63.58331532310352</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>26.81</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>109.73517344274525</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>1622.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>2545.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>63.73280943025541</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>1180.2</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>137.43433316387055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>12061.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>18700.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>64.49732620320856</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>11646.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>103.56345526360982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>36.1</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>54.54</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>66.18995232856619</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>107.76119402985074</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>74.75</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>112.5</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>66.44444444444444</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>69.85</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>107.01503221188263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>1732.8</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>2580.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>67.16279069767441</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>1514.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>114.45178335535006</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>941.4</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1389.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>67.77537796976242</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>755.5</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>124.60622104566512</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>386.2</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>568.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>67.99295774647888</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>297.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>130.03367003367003</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>3005.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>4409.95</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>68.14136214696312</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>2742.7</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>109.56356874612608</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>42.05</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>60.95</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>68.9909762100082</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>40.51</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>103.80153048629968</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>2077.1</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>2975.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>69.81848739495798</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>2051.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>101.27254997562163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>1465.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>2096.6</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>69.87503577220262</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>907.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>161.52149944873207</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>3366.7</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>4817.95</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>69.8782677279756</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>3095.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>108.77867528271405</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>2760.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>3947.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>69.92652647580441</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>1370.82</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>201.33934433404823</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>558.25</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>796.75</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>70.06589268904926</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>548.4</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>101.79613420860686</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>642.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>912.5</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>70.35616438356165</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>597.0</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>107.53768844221106</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>2476.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>3515.7</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>70.42694200301506</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>1921.0</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>128.8912024986986</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>2006.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>2848.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>70.43539325842697</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>105.57894736842105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>94.42</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>133.98</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>70.47320495596358</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>84.55</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>111.67356593731522</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>238.1</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>337.05</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>70.64233793205756</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>231.55</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>102.82876268624486</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>1625.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>2299.7</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>70.66139061616732</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>1574.1</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>103.23359379963154</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>2612.8</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>3693.6</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>70.73857483214209</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>2407.1</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>108.54555273981141</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>566.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>798.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>70.92731829573934</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>532.6</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>106.27112279384153</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>52.7</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>74.3</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>70.92866756393002</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>46.15</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>114.19284940411703</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>8373.5</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>11779.9</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>71.082946374757</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>4308.05</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>194.36868188623623</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>357.2</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>501.8</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>71.1837385412515</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>301.2</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>118.59229747675963</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>36075.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>50590.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>71.30855900375569</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>35310.0</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>102.16652506372132</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>1668.6</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>2337.7</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>71.3778500235274</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>1451.95</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>114.92131271738006</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>1729.5</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>2417.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>71.55564749689698</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>1521.0</v>
+      </c>
+      <c r="F36" t="n" s="0">
+        <v>113.70808678500985</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>1390.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>71.94244604316546</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>766.0</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>130.54830287206266</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>649.35</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>895.75</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>72.49232486742953</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>599.55</v>
+      </c>
+      <c r="F38" t="n" s="0">
+        <v>108.3062296722542</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>155.9</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>214.74</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>72.5994225575114</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>135.6</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>114.97050147492627</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>2190.9</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>2998.4</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>73.06897011739595</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>2090.0</v>
+      </c>
+      <c r="F40" t="n" s="0">
+        <v>104.82775119617226</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>5535.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>7565.5</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>73.16106007534201</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>4218.9</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>131.19533527696794</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>1361.5</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>1859.4</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>73.22254490695923</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>1135.0</v>
+      </c>
+      <c r="F42" t="n" s="0">
+        <v>119.95594713656388</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>3235.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>4330.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>74.71131639722864</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>2951.1</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>109.62014164209955</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>5210.0</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>6965.7</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>74.7950672581363</v>
+      </c>
+      <c r="E44" t="n" s="0">
+        <v>4700.0</v>
+      </c>
+      <c r="F44" t="n" s="0">
+        <v>110.85106382978724</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>32760.0</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>43732.55</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>74.90987834004648</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>31025.0</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>105.59226430298146</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>197.45</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>261.62</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>75.4720587111077</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>155.1</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>127.30496453900709</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>5950.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>7870.0</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>75.60355781448538</v>
+      </c>
+      <c r="E47" t="n" s="0">
+        <v>5242.4</v>
+      </c>
+      <c r="F47" t="n" s="0">
+        <v>113.49763467114299</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>2962.0</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>3865.0</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>76.63648124191462</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>1863.0</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>158.99087493290392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>856.0</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>1097.1</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>78.02388114119043</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>513.0</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>166.8615984405458</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>1173.1</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>1500.0</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>78.20666666666666</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>1020.6</v>
+      </c>
+      <c r="F50" t="n" s="0">
+        <v>114.9421908681168</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>28955.0</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>37000.0</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>78.25675675675676</v>
+      </c>
+      <c r="E51" t="n" s="0">
+        <v>25325.0</v>
+      </c>
+      <c r="F51" t="n" s="0">
+        <v>114.33366238894374</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>2306.3</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>2928.0</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>78.76707650273224</v>
+      </c>
+      <c r="E52" t="n" s="0">
+        <v>2152.05</v>
+      </c>
+      <c r="F52" t="n" s="0">
+        <v>107.16758439627331</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>478.95</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>607.3</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>78.86547011361766</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="F53" t="n" s="0">
+        <v>126.03947368421053</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>4471.3</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>5645.0</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>79.20814880425155</v>
+      </c>
+      <c r="E54" t="n" s="0">
+        <v>3951.3</v>
+      </c>
+      <c r="F54" t="n" s="0">
+        <v>113.16022574848783</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>1305.5</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>1640.0</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>79.60365853658537</v>
+      </c>
+      <c r="E55" t="n" s="0">
+        <v>1188.0</v>
+      </c>
+      <c r="F55" t="n" s="0">
+        <v>109.89057239057239</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>865.5</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>1086.55</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>79.65579126593346</v>
+      </c>
+      <c r="E56" t="n" s="0">
+        <v>606.0</v>
+      </c>
+      <c r="F56" t="n" s="0">
+        <v>142.82178217821783</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>413.5</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>517.9</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>79.84166827572892</v>
+      </c>
+      <c r="E57" t="n" s="0">
+        <v>360.25</v>
+      </c>
+      <c r="F57" t="n" s="0">
+        <v>114.78140180430256</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>380.4</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>475.95</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>79.92436180271037</v>
+      </c>
+      <c r="E58" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="F58" t="n" s="0">
+        <v>108.37606837606837</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>18265.0</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>22840.0</v>
+      </c>
+      <c r="D59" t="n" s="0">
+        <v>79.96935201401051</v>
+      </c>
+      <c r="E59" t="n" s="0">
+        <v>8801.0</v>
+      </c>
+      <c r="F59" t="n" s="0">
+        <v>207.53323485967502</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>884.75</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>1104.3</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>80.11862718464187</v>
+      </c>
+      <c r="E60" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="F60" t="n" s="0">
+        <v>153.3362218370884</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>525.15</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>652.04</v>
+      </c>
+      <c r="D61" t="n" s="0">
+        <v>80.53953745169008</v>
+      </c>
+      <c r="E61" t="n" s="0">
+        <v>481.0</v>
+      </c>
+      <c r="F61" t="n" s="0">
+        <v>109.17879417879418</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>1417.1</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>1755.9</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>80.70505154052051</v>
+      </c>
+      <c r="E62" t="n" s="0">
+        <v>1168.2</v>
+      </c>
+      <c r="F62" t="n" s="0">
+        <v>121.30628317068994</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>349.5</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>81.25894134477825</v>
+      </c>
+      <c r="E63" t="n" s="0">
+        <v>263.5</v>
+      </c>
+      <c r="F63" t="n" s="0">
+        <v>107.7798861480076</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>545.25</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>670.33</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>81.3405337669506</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>521.0</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>104.65451055662189</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>1185.0</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>1456.5</v>
+      </c>
+      <c r="D65" t="n" s="0">
+        <v>81.35942327497426</v>
+      </c>
+      <c r="E65" t="n" s="0">
+        <v>996.45</v>
+      </c>
+      <c r="F65" t="n" s="0">
+        <v>118.92217371669425</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>1830.0</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>2246.9</v>
+      </c>
+      <c r="D66" t="n" s="0">
+        <v>81.44554719836218</v>
+      </c>
+      <c r="E66" t="n" s="0">
+        <v>1311.35</v>
+      </c>
+      <c r="F66" t="n" s="0">
+        <v>139.55084454951006</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>284.5</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="D67" t="n" s="0">
+        <v>81.51862464183381</v>
+      </c>
+      <c r="E67" t="n" s="0">
+        <v>218.2</v>
+      </c>
+      <c r="F67" t="n" s="0">
+        <v>130.38496791934006</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>910.2</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>1112.0</v>
+      </c>
+      <c r="D68" t="n" s="0">
+        <v>81.85251798561153</v>
+      </c>
+      <c r="E68" t="n" s="0">
+        <v>565.0</v>
+      </c>
+      <c r="F68" t="n" s="0">
+        <v>161.09734513274336</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>1737.0</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>2119.9</v>
+      </c>
+      <c r="D69" t="n" s="0">
+        <v>81.93782725600263</v>
+      </c>
+      <c r="E69" t="n" s="0">
+        <v>1715.0</v>
+      </c>
+      <c r="F69" t="n" s="0">
+        <v>101.28279883381926</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>1325.9</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>1612.0</v>
+      </c>
+      <c r="D70" t="n" s="0">
+        <v>82.25186104218362</v>
+      </c>
+      <c r="E70" t="n" s="0">
+        <v>942.15</v>
+      </c>
+      <c r="F70" t="n" s="0">
+        <v>140.73130605529906</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>685.15</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>831.75</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>82.37451157198676</v>
+      </c>
+      <c r="E71" t="n" s="0">
+        <v>656.0</v>
+      </c>
+      <c r="F71" t="n" s="0">
+        <v>104.44359756097562</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>1664.9</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>2005.36</v>
+      </c>
+      <c r="D72" t="n" s="0">
+        <v>83.02249970080186</v>
+      </c>
+      <c r="E72" t="n" s="0">
+        <v>1194.01</v>
+      </c>
+      <c r="F72" t="n" s="0">
+        <v>139.43769315164866</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>1391.5</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>1673.7</v>
+      </c>
+      <c r="D73" t="n" s="0">
+        <v>83.13915277528828</v>
+      </c>
+      <c r="E73" t="n" s="0">
+        <v>1232.3</v>
+      </c>
+      <c r="F73" t="n" s="0">
+        <v>112.9189320782277</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>538.15</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>646.5</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>83.24052590873936</v>
+      </c>
+      <c r="E74" t="n" s="0">
+        <v>483.7</v>
+      </c>
+      <c r="F74" t="n" s="0">
+        <v>111.2569774653711</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>10.67</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>12.8</v>
+      </c>
+      <c r="D75" t="n" s="0">
+        <v>83.359375</v>
+      </c>
+      <c r="E75" t="n" s="0">
+        <v>6.12</v>
+      </c>
+      <c r="F75" t="n" s="0">
+        <v>174.34640522875816</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>2268.0</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>2718.9</v>
+      </c>
+      <c r="D76" t="n" s="0">
+        <v>83.41608738828202</v>
+      </c>
+      <c r="E76" t="n" s="0">
+        <v>1596.0</v>
+      </c>
+      <c r="F76" t="n" s="0">
+        <v>142.10526315789474</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>13039.0</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>15597.75</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>83.59539036078922</v>
+      </c>
+      <c r="E77" t="n" s="0">
+        <v>12105.6</v>
+      </c>
+      <c r="F77" t="n" s="0">
+        <v>107.71048109965636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>862.0</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>1027.25</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>83.91336091506449</v>
+      </c>
+      <c r="E78" t="n" s="0">
+        <v>663.05</v>
+      </c>
+      <c r="F78" t="n" s="0">
+        <v>130.00527863660358</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>362.3</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>431.6</v>
+      </c>
+      <c r="D79" t="n" s="0">
+        <v>83.94346617238185</v>
+      </c>
+      <c r="E79" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="F79" t="n" s="0">
+        <v>110.45731707317074</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>2590.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>3079.9</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>84.09363940387675</v>
+      </c>
+      <c r="E80" t="n" s="0">
+        <v>1675.0</v>
+      </c>
+      <c r="F80" t="n" s="0">
+        <v>154.62686567164178</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>194.75</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>85.04366812227074</v>
+      </c>
+      <c r="E81" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="F81" t="n" s="0">
+        <v>113.22674418604652</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>767.9</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>900.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>85.32222222222222</v>
+      </c>
+      <c r="E82" t="n" s="0">
+        <v>590.3</v>
+      </c>
+      <c r="F82" t="n" s="0">
+        <v>130.0863967474166</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>3670.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>4300.25</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>85.34387535608396</v>
+      </c>
+      <c r="E83" t="n" s="0">
+        <v>3220.6</v>
+      </c>
+      <c r="F83" t="n" s="0">
+        <v>113.95392162951005</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>249.4</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>292.2</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>85.35249828884326</v>
+      </c>
+      <c r="E84" t="n" s="0">
+        <v>186.03</v>
+      </c>
+      <c r="F84" t="n" s="0">
+        <v>134.0643982153416</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>2138.4</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>2496.3</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>85.66278091575532</v>
+      </c>
+      <c r="E85" t="n" s="0">
+        <v>1601.0</v>
+      </c>
+      <c r="F85" t="n" s="0">
+        <v>133.56652092442224</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>79.2</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>92.34</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>85.76998050682262</v>
+      </c>
+      <c r="E86" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="F86" t="n" s="0">
+        <v>111.5492957746479</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>425.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>494.55</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>85.9367101405318</v>
+      </c>
+      <c r="E87" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="F87" t="n" s="0">
+        <v>130.76923076923077</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>157.6</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>86.61167512690356</v>
+      </c>
+      <c r="E88" t="n" s="0">
+        <v>95.99</v>
+      </c>
+      <c r="F88" t="n" s="0">
+        <v>142.20231274091051</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>2637.2</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>3030.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>87.03630363036302</v>
+      </c>
+      <c r="E89" t="n" s="0">
+        <v>1227.33</v>
+      </c>
+      <c r="F89" t="n" s="0">
+        <v>214.87293555930353</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>502.35</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>87.06239168110919</v>
+      </c>
+      <c r="E90" t="n" s="0">
+        <v>433.3</v>
+      </c>
+      <c r="F90" t="n" s="0">
+        <v>115.93584121855527</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>1187.4</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>1356.2</v>
+      </c>
+      <c r="D91" t="n" s="0">
+        <v>87.55345819200707</v>
+      </c>
+      <c r="E91" t="n" s="0">
+        <v>1010.0</v>
+      </c>
+      <c r="F91" t="n" s="0">
+        <v>117.56435643564357</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>2108.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
+        <v>2402.9</v>
+      </c>
+      <c r="D92" t="n" s="0">
+        <v>87.7273294768821</v>
+      </c>
+      <c r="E92" t="n" s="0">
+        <v>1795.2</v>
+      </c>
+      <c r="F92" t="n" s="0">
+        <v>117.42424242424241</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n" s="0">
+        <v>1597.5</v>
+      </c>
+      <c r="C93" t="n" s="0">
+        <v>1814.0</v>
+      </c>
+      <c r="D93" t="n" s="0">
+        <v>88.06504961411245</v>
+      </c>
+      <c r="E93" t="n" s="0">
+        <v>1048.05</v>
+      </c>
+      <c r="F93" t="n" s="0">
+        <v>152.42593387720052</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B94" t="n" s="0">
+        <v>1808.0</v>
+      </c>
+      <c r="C94" t="n" s="0">
+        <v>2052.9</v>
+      </c>
+      <c r="D94" t="n" s="0">
+        <v>88.0705343660188</v>
+      </c>
+      <c r="E94" t="n" s="0">
+        <v>1234.0</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>146.515397082658</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B95" t="n" s="0">
+        <v>535.0</v>
+      </c>
+      <c r="C95" t="n" s="0">
+        <v>605.0</v>
+      </c>
+      <c r="D95" t="n" s="0">
+        <v>88.42975206611571</v>
+      </c>
+      <c r="E95" t="n" s="0">
+        <v>437.75</v>
+      </c>
+      <c r="F95" t="n" s="0">
+        <v>122.2158766419189</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B96" t="n" s="0">
+        <v>21.62</v>
+      </c>
+      <c r="C96" t="n" s="0">
+        <v>24.3</v>
+      </c>
+      <c r="D96" t="n" s="0">
+        <v>88.97119341563787</v>
+      </c>
+      <c r="E96" t="n" s="0">
+        <v>16.02</v>
+      </c>
+      <c r="F96" t="n" s="0">
+        <v>134.95630461922596</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B97" t="n" s="0">
+        <v>3720.0</v>
+      </c>
+      <c r="C97" t="n" s="0">
+        <v>4180.0</v>
+      </c>
+      <c r="D97" t="n" s="0">
+        <v>88.99521531100478</v>
+      </c>
+      <c r="E97" t="n" s="0">
+        <v>2776.4</v>
+      </c>
+      <c r="F97" t="n" s="0">
+        <v>133.98645728281227</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B98" t="n" s="0">
+        <v>3910.0</v>
+      </c>
+      <c r="C98" t="n" s="0">
+        <v>4392.0</v>
+      </c>
+      <c r="D98" t="n" s="0">
+        <v>89.02550091074681</v>
+      </c>
+      <c r="E98" t="n" s="0">
+        <v>2823.0</v>
+      </c>
+      <c r="F98" t="n" s="0">
+        <v>138.50513637973788</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B99" t="n" s="0">
+        <v>2036.4</v>
+      </c>
+      <c r="C99" t="n" s="0">
+        <v>2284.8</v>
+      </c>
+      <c r="D99" t="n" s="0">
+        <v>89.1281512605042</v>
+      </c>
+      <c r="E99" t="n" s="0">
+        <v>1275.5</v>
+      </c>
+      <c r="F99" t="n" s="0">
+        <v>159.65503724029793</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B100" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="C100" t="n" s="0">
+        <v>987.35</v>
+      </c>
+      <c r="D100" t="n" s="0">
+        <v>89.33002481389578</v>
+      </c>
+      <c r="E100" t="n" s="0">
+        <v>498.05</v>
+      </c>
+      <c r="F100" t="n" s="0">
+        <v>177.09065354884046</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B101" t="n" s="0">
+        <v>227.5</v>
+      </c>
+      <c r="C101" t="n" s="0">
+        <v>254.29</v>
+      </c>
+      <c r="D101" t="n" s="0">
+        <v>89.46478430138818</v>
+      </c>
+      <c r="E101" t="n" s="0">
+        <v>158.85</v>
+      </c>
+      <c r="F101" t="n" s="0">
+        <v>143.21687126219703</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B102" t="n" s="0">
+        <v>2774.0</v>
+      </c>
+      <c r="C102" t="n" s="0">
+        <v>3094.25</v>
+      </c>
+      <c r="D102" t="n" s="0">
+        <v>89.6501575502949</v>
+      </c>
+      <c r="E102" t="n" s="0">
+        <v>2327.3</v>
+      </c>
+      <c r="F102" t="n" s="0">
+        <v>119.19391569630042</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B103" t="n" s="0">
+        <v>2675.0</v>
+      </c>
+      <c r="C103" t="n" s="0">
+        <v>2967.25</v>
+      </c>
+      <c r="D103" t="n" s="0">
+        <v>90.15081304237931</v>
+      </c>
+      <c r="E103" t="n" s="0">
+        <v>1781.53</v>
+      </c>
+      <c r="F103" t="n" s="0">
+        <v>150.15183578160344</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B104" t="n" s="0">
+        <v>5762.0</v>
+      </c>
+      <c r="C104" t="n" s="0">
+        <v>6388.5</v>
+      </c>
+      <c r="D104" t="n" s="0">
+        <v>90.19331611489395</v>
+      </c>
+      <c r="E104" t="n" s="0">
+        <v>3344.0</v>
+      </c>
+      <c r="F104" t="n" s="0">
+        <v>172.3086124401914</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B105" t="n" s="0">
+        <v>1189.2</v>
+      </c>
+      <c r="C105" t="n" s="0">
+        <v>1318.0</v>
+      </c>
+      <c r="D105" t="n" s="0">
+        <v>90.22761760242793</v>
+      </c>
+      <c r="E105" t="n" s="0">
+        <v>790.5</v>
+      </c>
+      <c r="F105" t="n" s="0">
+        <v>150.43643263757116</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B106" t="n" s="0">
+        <v>2788.9</v>
+      </c>
+      <c r="C106" t="n" s="0">
+        <v>3078.4</v>
+      </c>
+      <c r="D106" t="n" s="0">
+        <v>90.59576403326403</v>
+      </c>
+      <c r="E106" t="n" s="0">
+        <v>2044.55</v>
+      </c>
+      <c r="F106" t="n" s="0">
+        <v>136.4065442273361</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B107" t="n" s="0">
+        <v>1820.0</v>
+      </c>
+      <c r="C107" t="n" s="0">
+        <v>2004.0</v>
+      </c>
+      <c r="D107" t="n" s="0">
+        <v>90.8183632734531</v>
+      </c>
+      <c r="E107" t="n" s="0">
+        <v>1291.0</v>
+      </c>
+      <c r="F107" t="n" s="0">
+        <v>140.97598760650658</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B108" t="n" s="0">
+        <v>3067.7</v>
+      </c>
+      <c r="C108" t="n" s="0">
+        <v>3325.0</v>
+      </c>
+      <c r="D108" t="n" s="0">
+        <v>92.26165413533835</v>
+      </c>
+      <c r="E108" t="n" s="0">
+        <v>2196.85</v>
+      </c>
+      <c r="F108" t="n" s="0">
+        <v>139.64084939800168</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B109" t="n" s="0">
+        <v>6257.0</v>
+      </c>
+      <c r="C109" t="n" s="0">
+        <v>6768.8</v>
+      </c>
+      <c r="D109" t="n" s="0">
+        <v>92.43883701690108</v>
+      </c>
+      <c r="E109" t="n" s="0">
+        <v>4148.95</v>
+      </c>
+      <c r="F109" t="n" s="0">
+        <v>150.80924089227395</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B110" t="n" s="0">
+        <v>1278.0</v>
+      </c>
+      <c r="C110" t="n" s="0">
+        <v>1382.0</v>
+      </c>
+      <c r="D110" t="n" s="0">
+        <v>92.47467438494935</v>
+      </c>
+      <c r="E110" t="n" s="0">
+        <v>767.6</v>
+      </c>
+      <c r="F110" t="n" s="0">
+        <v>166.4929650859823</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B111" t="n" s="0">
+        <v>499.9</v>
+      </c>
+      <c r="C111" t="n" s="0">
+        <v>540.55</v>
+      </c>
+      <c r="D111" t="n" s="0">
+        <v>92.47988160207196</v>
+      </c>
+      <c r="E111" t="n" s="0">
+        <v>370.9</v>
+      </c>
+      <c r="F111" t="n" s="0">
+        <v>134.78026422216232</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B112" t="n" s="0">
+        <v>393.4</v>
+      </c>
+      <c r="C112" t="n" s="0">
+        <v>424.95</v>
+      </c>
+      <c r="D112" t="n" s="0">
+        <v>92.575597129074</v>
+      </c>
+      <c r="E112" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="F112" t="n" s="0">
+        <v>135.1890034364261</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B113" t="n" s="0">
+        <v>152500.0</v>
+      </c>
+      <c r="C113" t="n" s="0">
+        <v>163600.0</v>
+      </c>
+      <c r="D113" t="n" s="0">
+        <v>93.21515892420538</v>
+      </c>
+      <c r="E113" t="n" s="0">
+        <v>102124.05</v>
+      </c>
+      <c r="F113" t="n" s="0">
+        <v>149.32819448504048</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B114" t="n" s="0">
+        <v>5470.0</v>
+      </c>
+      <c r="C114" t="n" s="0">
+        <v>5868.0</v>
+      </c>
+      <c r="D114" t="n" s="0">
+        <v>93.21745057941376</v>
+      </c>
+      <c r="E114" t="n" s="0">
+        <v>4491.65</v>
+      </c>
+      <c r="F114" t="n" s="0">
+        <v>121.78152794630036</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B115" t="n" s="0">
+        <v>836.8</v>
+      </c>
+      <c r="C115" t="n" s="0">
+        <v>894.85</v>
+      </c>
+      <c r="D115" t="n" s="0">
+        <v>93.51287925350616</v>
+      </c>
+      <c r="E115" t="n" s="0">
+        <v>473.9</v>
+      </c>
+      <c r="F115" t="n" s="0">
+        <v>176.57733699092634</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B116" t="n" s="0">
+        <v>1297.0</v>
+      </c>
+      <c r="C116" t="n" s="0">
+        <v>1381.8</v>
+      </c>
+      <c r="D116" t="n" s="0">
+        <v>93.86307714575192</v>
+      </c>
+      <c r="E116" t="n" s="0">
+        <v>651.5</v>
+      </c>
+      <c r="F116" t="n" s="0">
+        <v>199.07904834996162</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B117" t="n" s="0">
+        <v>3131.9</v>
+      </c>
+      <c r="C117" t="n" s="0">
+        <v>3323.8</v>
+      </c>
+      <c r="D117" t="n" s="0">
+        <v>94.22648775497925</v>
+      </c>
+      <c r="E117" t="n" s="0">
+        <v>1254.0</v>
+      </c>
+      <c r="F117" t="n" s="0">
+        <v>249.75279106858056</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B118" t="n" s="0">
+        <v>104.2</v>
+      </c>
+      <c r="C118" t="n" s="0">
+        <v>110.36</v>
+      </c>
+      <c r="D118" t="n" s="0">
+        <v>94.41826748822038</v>
+      </c>
+      <c r="E118" t="n" s="0">
+        <v>67.75</v>
+      </c>
+      <c r="F118" t="n" s="0">
+        <v>153.8007380073801</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B119" t="n" s="0">
+        <v>35180.0</v>
+      </c>
+      <c r="C119" t="n" s="0">
+        <v>37000.0</v>
+      </c>
+      <c r="D119" t="n" s="0">
+        <v>95.08108108108108</v>
+      </c>
+      <c r="E119" t="n" s="0">
+        <v>25718.15</v>
+      </c>
+      <c r="F119" t="n" s="0">
+        <v>136.79055453055526</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B120" t="n" s="0">
+        <v>144.4</v>
+      </c>
+      <c r="C120" t="n" s="0">
+        <v>151.43</v>
+      </c>
+      <c r="D120" t="n" s="0">
+        <v>95.35759096612297</v>
+      </c>
+      <c r="E120" t="n" s="0">
+        <v>90.05</v>
+      </c>
+      <c r="F120" t="n" s="0">
+        <v>160.3553581343698</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B121" t="n" s="0">
+        <v>1676.2</v>
+      </c>
+      <c r="C121" t="n" s="0">
+        <v>1751.4</v>
+      </c>
+      <c r="D121" t="n" s="0">
+        <v>95.70629210916981</v>
+      </c>
+      <c r="E121" t="n" s="0">
+        <v>950.0</v>
+      </c>
+      <c r="F121" t="n" s="0">
+        <v>176.4421052631579</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B122" t="n" s="0">
+        <v>4427.2</v>
+      </c>
+      <c r="C122" t="n" s="0">
+        <v>4615.0</v>
+      </c>
+      <c r="D122" t="n" s="0">
+        <v>95.93066088840736</v>
+      </c>
+      <c r="E122" t="n" s="0">
+        <v>2580.0</v>
+      </c>
+      <c r="F122" t="n" s="0">
+        <v>171.59689922480618</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B123" t="n" s="0">
+        <v>153.8</v>
+      </c>
+      <c r="C123" t="n" s="0">
+        <v>160.15</v>
+      </c>
+      <c r="D123" t="n" s="0">
+        <v>96.03496721823291</v>
+      </c>
+      <c r="E123" t="n" s="0">
+        <v>100.81</v>
+      </c>
+      <c r="F123" t="n" s="0">
+        <v>152.5642297391132</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B124" t="n" s="0">
+        <v>833.2</v>
+      </c>
+      <c r="C124" t="n" s="0">
+        <v>867.0</v>
+      </c>
+      <c r="D124" t="n" s="0">
+        <v>96.10149942329873</v>
+      </c>
+      <c r="E124" t="n" s="0">
+        <v>496.6</v>
+      </c>
+      <c r="F124" t="n" s="0">
+        <v>167.78091018928717</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B125" t="n" s="0">
+        <v>7596.0</v>
+      </c>
+      <c r="C125" t="n" s="0">
+        <v>7903.0</v>
+      </c>
+      <c r="D125" t="n" s="0">
+        <v>96.11539921548778</v>
+      </c>
+      <c r="E125" t="n" s="0">
+        <v>4555.0</v>
+      </c>
+      <c r="F125" t="n" s="0">
+        <v>166.76180021953897</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B126" t="n" s="0">
+        <v>667.25</v>
+      </c>
+      <c r="C126" t="n" s="0">
+        <v>693.5</v>
+      </c>
+      <c r="D126" t="n" s="0">
+        <v>96.21485219899063</v>
+      </c>
+      <c r="E126" t="n" s="0">
+        <v>525.8</v>
+      </c>
+      <c r="F126" t="n" s="0">
+        <v>126.90186382655004</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B127" t="n" s="0">
+        <v>355.6</v>
+      </c>
+      <c r="C127" t="n" s="0">
+        <v>368.95</v>
+      </c>
+      <c r="D127" t="n" s="0">
+        <v>96.38162352622308</v>
+      </c>
+      <c r="E127" t="n" s="0">
+        <v>149.01</v>
+      </c>
+      <c r="F127" t="n" s="0">
+        <v>238.64170189920142</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B128" t="n" s="0">
+        <v>103.2</v>
+      </c>
+      <c r="C128" t="n" s="0">
+        <v>106.97</v>
+      </c>
+      <c r="D128" t="n" s="0">
+        <v>96.47564737776946</v>
+      </c>
+      <c r="E128" t="n" s="0">
+        <v>65.89</v>
+      </c>
+      <c r="F128" t="n" s="0">
+        <v>156.62467749279102</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B129" t="n" s="0">
+        <v>421.0</v>
+      </c>
+      <c r="C129" t="n" s="0">
+        <v>434.7</v>
+      </c>
+      <c r="D129" t="n" s="0">
+        <v>96.8484011962273</v>
+      </c>
+      <c r="E129" t="n" s="0">
+        <v>312.55</v>
+      </c>
+      <c r="F129" t="n" s="0">
+        <v>134.69844824828027</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B130" t="n" s="0">
+        <v>265.2</v>
+      </c>
+      <c r="C130" t="n" s="0">
+        <v>273.22</v>
+      </c>
+      <c r="D130" t="n" s="0">
+        <v>97.06463655662102</v>
+      </c>
+      <c r="E130" t="n" s="0">
+        <v>154.9</v>
+      </c>
+      <c r="F130" t="n" s="0">
+        <v>171.20723047127177</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B131" t="n" s="0">
+        <v>4451.7</v>
+      </c>
+      <c r="C131" t="n" s="0">
+        <v>4572.7</v>
+      </c>
+      <c r="D131" t="n" s="0">
+        <v>97.35386095742122</v>
+      </c>
+      <c r="E131" t="n" s="0">
+        <v>2424.0</v>
+      </c>
+      <c r="F131" t="n" s="0">
+        <v>183.6509900990099</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B132" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="C132" t="n" s="0">
+        <v>295.25</v>
+      </c>
+      <c r="D132" t="n" s="0">
+        <v>97.54445385266723</v>
+      </c>
+      <c r="E132" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="F132" t="n" s="0">
+        <v>163.63636363636363</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B133" t="n" s="0">
+        <v>402.5</v>
+      </c>
+      <c r="C133" t="n" s="0">
+        <v>412.2</v>
+      </c>
+      <c r="D133" t="n" s="0">
+        <v>97.64677341096555</v>
+      </c>
+      <c r="E133" t="n" s="0">
+        <v>231.02</v>
+      </c>
+      <c r="F133" t="n" s="0">
+        <v>174.22733962427495</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B134" t="n" s="0">
+        <v>5300.1</v>
+      </c>
+      <c r="C134" t="n" s="0">
+        <v>5419.0</v>
+      </c>
+      <c r="D134" t="n" s="0">
+        <v>97.80586824137296</v>
+      </c>
+      <c r="E134" t="n" s="0">
+        <v>4066.8</v>
+      </c>
+      <c r="F134" t="n" s="0">
+        <v>130.32605488344646</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B135" t="n" s="0">
+        <v>3809.6</v>
+      </c>
+      <c r="C135" t="n" s="0">
+        <v>3890.0</v>
+      </c>
+      <c r="D135" t="n" s="0">
+        <v>97.9331619537275</v>
+      </c>
+      <c r="E135" t="n" s="0">
+        <v>1965.0</v>
+      </c>
+      <c r="F135" t="n" s="0">
+        <v>193.8727735368957</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B136" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="C136" t="n" s="0">
+        <v>84.64</v>
+      </c>
+      <c r="D136" t="n" s="0">
+        <v>98.06238185255198</v>
+      </c>
+      <c r="E136" t="n" s="0">
+        <v>59.53</v>
+      </c>
+      <c r="F136" t="n" s="0">
+        <v>139.4254997480262</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B137" t="n" s="0">
+        <v>750.7</v>
+      </c>
+      <c r="C137" t="n" s="0">
+        <v>765.3</v>
+      </c>
+      <c r="D137" t="n" s="0">
+        <v>98.09225140467791</v>
+      </c>
+      <c r="E137" t="n" s="0">
+        <v>577.85</v>
+      </c>
+      <c r="F137" t="n" s="0">
+        <v>129.9126070779614</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B138" t="n" s="0">
+        <v>4010.0</v>
+      </c>
+      <c r="C138" t="n" s="0">
+        <v>4080.0</v>
+      </c>
+      <c r="D138" t="n" s="0">
+        <v>98.28431372549021</v>
+      </c>
+      <c r="E138" t="n" s="0">
+        <v>3001.1</v>
+      </c>
+      <c r="F138" t="n" s="0">
+        <v>133.61767351970946</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B139" t="n" s="0">
+        <v>314.65</v>
+      </c>
+      <c r="C139" t="n" s="0">
+        <v>319.85</v>
+      </c>
+      <c r="D139" t="n" s="0">
+        <v>98.37423792402687</v>
+      </c>
+      <c r="E139" t="n" s="0">
+        <v>137.75</v>
+      </c>
+      <c r="F139" t="n" s="0">
+        <v>228.42105263157893</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B140" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="C140" t="n" s="0">
+        <v>271.1</v>
+      </c>
+      <c r="D140" t="n" s="0">
+        <v>98.48764293618589</v>
+      </c>
+      <c r="E140" t="n" s="0">
+        <v>172.66</v>
+      </c>
+      <c r="F140" t="n" s="0">
+        <v>154.63917525773198</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B141" t="n" s="0">
+        <v>1470.0</v>
+      </c>
+      <c r="C141" t="n" s="0">
+        <v>1490.9</v>
+      </c>
+      <c r="D141" t="n" s="0">
+        <v>98.59816218391575</v>
+      </c>
+      <c r="E141" t="n" s="0">
+        <v>919.1</v>
+      </c>
+      <c r="F141" t="n" s="0">
+        <v>159.93907083015992</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B142" t="n" s="0">
+        <v>147.1</v>
+      </c>
+      <c r="C142" t="n" s="0">
+        <v>149.19</v>
+      </c>
+      <c r="D142" t="n" s="0">
+        <v>98.59910181647562</v>
+      </c>
+      <c r="E142" t="n" s="0">
+        <v>99.15</v>
+      </c>
+      <c r="F142" t="n" s="0">
+        <v>148.36106908724153</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B143" t="n" s="0">
+        <v>1913.0</v>
+      </c>
+      <c r="C143" t="n" s="0">
+        <v>1936.0</v>
+      </c>
+      <c r="D143" t="n" s="0">
+        <v>98.81198347107438</v>
+      </c>
+      <c r="E143" t="n" s="0">
+        <v>1272.7</v>
+      </c>
+      <c r="F143" t="n" s="0">
+        <v>150.31036379350985</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B144" t="n" s="0">
+        <v>996.4</v>
+      </c>
+      <c r="C144" t="n" s="0">
+        <v>1007.25</v>
+      </c>
+      <c r="D144" t="n" s="0">
+        <v>98.92280963018119</v>
+      </c>
+      <c r="E144" t="n" s="0">
+        <v>478.35</v>
+      </c>
+      <c r="F144" t="n" s="0">
+        <v>208.2993623915543</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B145" t="n" s="0">
+        <v>1852.0</v>
+      </c>
+      <c r="C145" t="n" s="0">
+        <v>1871.0</v>
+      </c>
+      <c r="D145" t="n" s="0">
+        <v>98.98450026723677</v>
+      </c>
+      <c r="E145" t="n" s="0">
+        <v>1402.5</v>
+      </c>
+      <c r="F145" t="n" s="0">
+        <v>132.04991087344027</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B146" t="n" s="0">
+        <v>793.05</v>
+      </c>
+      <c r="C146" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="D146" t="n" s="0">
+        <v>99.00749063670412</v>
+      </c>
+      <c r="E146" t="n" s="0">
+        <v>493.0</v>
+      </c>
+      <c r="F146" t="n" s="0">
+        <v>160.86206896551724</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B147" t="n" s="0">
+        <v>62.1</v>
+      </c>
+      <c r="C147" t="n" s="0">
+        <v>62.65</v>
+      </c>
+      <c r="D147" t="n" s="0">
+        <v>99.12210694333601</v>
+      </c>
+      <c r="E147" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="F147" t="n" s="0">
+        <v>147.85714285714286</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B148" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="C148" t="n" s="0">
+        <v>180.34</v>
+      </c>
+      <c r="D148" t="n" s="0">
+        <v>99.25695907729843</v>
+      </c>
+      <c r="E148" t="n" s="0">
+        <v>95.93</v>
+      </c>
+      <c r="F148" t="n" s="0">
+        <v>186.59439174397997</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B149" t="n" s="0">
+        <v>85.5</v>
+      </c>
+      <c r="C149" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="D149" t="n" s="0">
+        <v>99.4186046511628</v>
+      </c>
+      <c r="E149" t="n" s="0">
+        <v>52.46</v>
+      </c>
+      <c r="F149" t="n" s="0">
+        <v>162.9813191002669</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B150" t="n" s="0">
+        <v>499.5</v>
+      </c>
+      <c r="C150" t="n" s="0">
+        <v>500.9</v>
+      </c>
+      <c r="D150" t="n" s="0">
+        <v>99.72050309443004</v>
+      </c>
+      <c r="E150" t="n" s="0">
+        <v>287.55</v>
+      </c>
+      <c r="F150" t="n" s="0">
+        <v>173.7089201877934</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B151" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="C151" t="n" s="0">
+        <v>316.6</v>
+      </c>
+      <c r="D151" t="n" s="0">
+        <v>99.81048641819329</v>
+      </c>
+      <c r="E151" t="n" s="0">
+        <v>129.2</v>
+      </c>
+      <c r="F151" t="n" s="0">
+        <v>244.58204334365328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>